--- a/Documentación/normalizacion Terminada.xlsx
+++ b/Documentación/normalizacion Terminada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASES\Desarrollo de Software\Semana II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASES\DesarrolloSoftwawe\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FA04729D-5B44-4CD7-ACEF-1B537884D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C097A5-1F61-4FF5-B388-F6A8E6F315F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2940" yWindow="3765" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>3FN</t>
   </si>
@@ -323,12 +323,39 @@
   </si>
   <si>
     <t>Ibuprofeno</t>
+  </si>
+  <si>
+    <t>Forularios</t>
+  </si>
+  <si>
+    <t>Quien lo va hacer</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Asdrubal</t>
+  </si>
+  <si>
+    <t>Menu Principal</t>
+  </si>
+  <si>
+    <t>Gerson</t>
+  </si>
+  <si>
+    <t>Facturacion</t>
+  </si>
+  <si>
+    <t>Cotizaciones</t>
+  </si>
+  <si>
+    <t>Categorias de Productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +395,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,19 +416,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -703,14 +804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -727,31 +828,39 @@
     <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -777,8 +886,14 @@
       <c r="O4" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,8 +918,14 @@
       <c r="O5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -829,8 +950,14 @@
       <c r="O6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -855,8 +982,14 @@
       <c r="O7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -869,8 +1002,14 @@
       <c r="I8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -883,8 +1022,14 @@
       <c r="I9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -897,39 +1042,85 @@
       <c r="I10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -955,7 +1146,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -981,7 +1172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1007,7 +1198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -1033,7 +1224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -1050,7 +1241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1061,7 +1252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>78</v>
       </c>
@@ -1069,7 +1260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>80</v>
       </c>
@@ -1077,7 +1268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1091,7 +1282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
